--- a/TestData/API_TestData.xlsx
+++ b/TestData/API_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="16104" windowHeight="4704"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="15948" windowHeight="2952"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -28,9 +28,6 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Create User</t>
-  </si>
-  <si>
     <t>sujay</t>
   </si>
   <si>
@@ -56,12 +53,22 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Create New User</t>
+  </si>
+  <si>
+    <t>SL#</t>
+  </si>
+  <si>
+    <t>223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -127,10 +134,18 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,71 +440,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.77734375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="5.77734375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
